--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Il34-Csf1r.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Il34-Csf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Csf1r</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.83825714131191</v>
+        <v>1.434700666666667</v>
       </c>
       <c r="H2">
-        <v>4.83825714131191</v>
+        <v>4.304102</v>
       </c>
       <c r="I2">
-        <v>0.3744596795112188</v>
+        <v>0.09362444392770469</v>
       </c>
       <c r="J2">
-        <v>0.3744596795112188</v>
+        <v>0.09362444392770468</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.36205530139381</v>
+        <v>21.03403033333333</v>
       </c>
       <c r="N2">
-        <v>1.36205530139381</v>
+        <v>63.102091</v>
       </c>
       <c r="O2">
-        <v>0.007654330716430944</v>
+        <v>0.1030737782409588</v>
       </c>
       <c r="P2">
-        <v>0.007654330716430944</v>
+        <v>0.1030737782409588</v>
       </c>
       <c r="Q2">
-        <v>6.589973788830347</v>
+        <v>30.17753734192023</v>
       </c>
       <c r="R2">
-        <v>6.589973788830347</v>
+        <v>271.597836077282</v>
       </c>
       <c r="S2">
-        <v>0.002866238226947609</v>
+        <v>0.009650225171337318</v>
       </c>
       <c r="T2">
-        <v>0.002866238226947609</v>
+        <v>0.009650225171337314</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.83825714131191</v>
+        <v>1.434700666666667</v>
       </c>
       <c r="H3">
-        <v>4.83825714131191</v>
+        <v>4.304102</v>
       </c>
       <c r="I3">
-        <v>0.3744596795112188</v>
+        <v>0.09362444392770469</v>
       </c>
       <c r="J3">
-        <v>0.3744596795112188</v>
+        <v>0.09362444392770468</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.75316703258731</v>
+        <v>1.853217</v>
       </c>
       <c r="N3">
-        <v>1.75316703258731</v>
+        <v>5.559651000000001</v>
       </c>
       <c r="O3">
-        <v>0.009852258021267537</v>
+        <v>0.009081382648177616</v>
       </c>
       <c r="P3">
-        <v>0.009852258021267537</v>
+        <v>0.009081382648177616</v>
       </c>
       <c r="Q3">
-        <v>8.482272915328164</v>
+        <v>2.658811665378</v>
       </c>
       <c r="R3">
-        <v>8.482272915328164</v>
+        <v>23.92930498840201</v>
       </c>
       <c r="S3">
-        <v>0.003689273381105676</v>
+        <v>0.0008502394005303356</v>
       </c>
       <c r="T3">
-        <v>0.003689273381105676</v>
+        <v>0.0008502394005303355</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.83825714131191</v>
+        <v>1.434700666666667</v>
       </c>
       <c r="H4">
-        <v>4.83825714131191</v>
+        <v>4.304102</v>
       </c>
       <c r="I4">
-        <v>0.3744596795112188</v>
+        <v>0.09362444392770469</v>
       </c>
       <c r="J4">
-        <v>0.3744596795112188</v>
+        <v>0.09362444392770468</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>173.319242205874</v>
+        <v>179.590866</v>
       </c>
       <c r="N4">
-        <v>173.319242205874</v>
+        <v>538.772598</v>
       </c>
       <c r="O4">
-        <v>0.9740006870553523</v>
+        <v>0.8800552629635879</v>
       </c>
       <c r="P4">
-        <v>0.9740006870553523</v>
+        <v>0.8800552629635878</v>
       </c>
       <c r="Q4">
-        <v>838.5630613293384</v>
+        <v>257.6591351774441</v>
       </c>
       <c r="R4">
-        <v>838.5630613293384</v>
+        <v>2318.932216596996</v>
       </c>
       <c r="S4">
-        <v>0.3647239851184541</v>
+        <v>0.08239468462061585</v>
       </c>
       <c r="T4">
-        <v>0.3647239851184541</v>
+        <v>0.08239468462061582</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.83825714131191</v>
+        <v>1.434700666666667</v>
       </c>
       <c r="H5">
-        <v>4.83825714131191</v>
+        <v>4.304102</v>
       </c>
       <c r="I5">
-        <v>0.3744596795112188</v>
+        <v>0.09362444392770469</v>
       </c>
       <c r="J5">
-        <v>0.3744596795112188</v>
+        <v>0.09362444392770468</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.51124382495254</v>
+        <v>1.589601</v>
       </c>
       <c r="N5">
-        <v>1.51124382495254</v>
+        <v>4.768803</v>
       </c>
       <c r="O5">
-        <v>0.008492724206949286</v>
+        <v>0.007789576147275677</v>
       </c>
       <c r="P5">
-        <v>0.008492724206949286</v>
+        <v>0.007789576147275675</v>
       </c>
       <c r="Q5">
-        <v>7.311786228340153</v>
+        <v>2.280601614434</v>
       </c>
       <c r="R5">
-        <v>7.311786228340153</v>
+        <v>20.525414529906</v>
       </c>
       <c r="S5">
-        <v>0.003180182784711399</v>
+        <v>0.0007292947352211976</v>
       </c>
       <c r="T5">
-        <v>0.003180182784711399</v>
+        <v>0.0007292947352211973</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.082378660190869</v>
+        <v>4.873786</v>
       </c>
       <c r="H6">
-        <v>8.082378660190869</v>
+        <v>14.621358</v>
       </c>
       <c r="I6">
-        <v>0.6255403204887813</v>
+        <v>0.318049273046479</v>
       </c>
       <c r="J6">
-        <v>0.6255403204887813</v>
+        <v>0.318049273046479</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.36205530139381</v>
+        <v>21.03403033333333</v>
       </c>
       <c r="N6">
-        <v>1.36205530139381</v>
+        <v>63.102091</v>
       </c>
       <c r="O6">
-        <v>0.007654330716430944</v>
+        <v>0.1030737782409588</v>
       </c>
       <c r="P6">
-        <v>0.007654330716430944</v>
+        <v>0.1030737782409588</v>
       </c>
       <c r="Q6">
-        <v>11.00864670198517</v>
+        <v>102.5153625621753</v>
       </c>
       <c r="R6">
-        <v>11.00864670198517</v>
+        <v>922.6382630595781</v>
       </c>
       <c r="S6">
-        <v>0.004788092489483336</v>
+        <v>0.03278254023969093</v>
       </c>
       <c r="T6">
-        <v>0.004788092489483336</v>
+        <v>0.03278254023969094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.082378660190869</v>
+        <v>4.873786</v>
       </c>
       <c r="H7">
-        <v>8.082378660190869</v>
+        <v>14.621358</v>
       </c>
       <c r="I7">
-        <v>0.6255403204887813</v>
+        <v>0.318049273046479</v>
       </c>
       <c r="J7">
-        <v>0.6255403204887813</v>
+        <v>0.318049273046479</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.75316703258731</v>
+        <v>1.853217</v>
       </c>
       <c r="N7">
-        <v>1.75316703258731</v>
+        <v>5.559651000000001</v>
       </c>
       <c r="O7">
-        <v>0.009852258021267537</v>
+        <v>0.009081382648177616</v>
       </c>
       <c r="P7">
-        <v>0.009852258021267537</v>
+        <v>0.009081382648177616</v>
       </c>
       <c r="Q7">
-        <v>14.16975981193383</v>
+        <v>9.032183069562</v>
       </c>
       <c r="R7">
-        <v>14.16975981193383</v>
+        <v>81.28964762605801</v>
       </c>
       <c r="S7">
-        <v>0.006162984640161862</v>
+        <v>0.002888327149509799</v>
       </c>
       <c r="T7">
-        <v>0.006162984640161862</v>
+        <v>0.0028883271495098</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.082378660190869</v>
+        <v>4.873786</v>
       </c>
       <c r="H8">
-        <v>8.082378660190869</v>
+        <v>14.621358</v>
       </c>
       <c r="I8">
-        <v>0.6255403204887813</v>
+        <v>0.318049273046479</v>
       </c>
       <c r="J8">
-        <v>0.6255403204887813</v>
+        <v>0.318049273046479</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>173.319242205874</v>
+        <v>179.590866</v>
       </c>
       <c r="N8">
-        <v>173.319242205874</v>
+        <v>538.772598</v>
       </c>
       <c r="O8">
-        <v>0.9740006870553523</v>
+        <v>0.8800552629635879</v>
       </c>
       <c r="P8">
-        <v>0.9740006870553523</v>
+        <v>0.8800552629635878</v>
       </c>
       <c r="Q8">
-        <v>1400.831744605209</v>
+        <v>875.2874484386761</v>
       </c>
       <c r="R8">
-        <v>1400.831744605209</v>
+        <v>7877.587035948085</v>
       </c>
       <c r="S8">
-        <v>0.6092767019368982</v>
+        <v>0.279900936626297</v>
       </c>
       <c r="T8">
-        <v>0.6092767019368982</v>
+        <v>0.279900936626297</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.873786</v>
+      </c>
+      <c r="H9">
+        <v>14.621358</v>
+      </c>
+      <c r="I9">
+        <v>0.318049273046479</v>
+      </c>
+      <c r="J9">
+        <v>0.318049273046479</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.589601</v>
+      </c>
+      <c r="N9">
+        <v>4.768803</v>
+      </c>
+      <c r="O9">
+        <v>0.007789576147275677</v>
+      </c>
+      <c r="P9">
+        <v>0.007789576147275675</v>
+      </c>
+      <c r="Q9">
+        <v>7.747375099386</v>
+      </c>
+      <c r="R9">
+        <v>69.726375894474</v>
+      </c>
+      <c r="S9">
+        <v>0.002477469030981221</v>
+      </c>
+      <c r="T9">
+        <v>0.002477469030981221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.06272999999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.18819</v>
+      </c>
+      <c r="I10">
+        <v>0.004093579590528929</v>
+      </c>
+      <c r="J10">
+        <v>0.004093579590528929</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>21.03403033333333</v>
+      </c>
+      <c r="N10">
+        <v>63.102091</v>
+      </c>
+      <c r="O10">
+        <v>0.1030737782409588</v>
+      </c>
+      <c r="P10">
+        <v>0.1030737782409588</v>
+      </c>
+      <c r="Q10">
+        <v>1.31946472281</v>
+      </c>
+      <c r="R10">
+        <v>11.87518250529</v>
+      </c>
+      <c r="S10">
+        <v>0.0004219407149258938</v>
+      </c>
+      <c r="T10">
+        <v>0.0004219407149258938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.06272999999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.18819</v>
+      </c>
+      <c r="I11">
+        <v>0.004093579590528929</v>
+      </c>
+      <c r="J11">
+        <v>0.004093579590528929</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.853217</v>
+      </c>
+      <c r="N11">
+        <v>5.559651000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.009081382648177616</v>
+      </c>
+      <c r="P11">
+        <v>0.009081382648177616</v>
+      </c>
+      <c r="Q11">
+        <v>0.11625230241</v>
+      </c>
+      <c r="R11">
+        <v>1.04627072169</v>
+      </c>
+      <c r="S11">
+        <v>3.717536266236345E-05</v>
+      </c>
+      <c r="T11">
+        <v>3.717536266236345E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.06272999999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.18819</v>
+      </c>
+      <c r="I12">
+        <v>0.004093579590528929</v>
+      </c>
+      <c r="J12">
+        <v>0.004093579590528929</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>179.590866</v>
+      </c>
+      <c r="N12">
+        <v>538.772598</v>
+      </c>
+      <c r="O12">
+        <v>0.8800552629635879</v>
+      </c>
+      <c r="P12">
+        <v>0.8800552629635878</v>
+      </c>
+      <c r="Q12">
+        <v>11.26573502418</v>
+      </c>
+      <c r="R12">
+        <v>101.39161521762</v>
+      </c>
+      <c r="S12">
+        <v>0.003602576263005313</v>
+      </c>
+      <c r="T12">
+        <v>0.003602576263005313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.06272999999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.18819</v>
+      </c>
+      <c r="I13">
+        <v>0.004093579590528929</v>
+      </c>
+      <c r="J13">
+        <v>0.004093579590528929</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.589601</v>
+      </c>
+      <c r="N13">
+        <v>4.768803</v>
+      </c>
+      <c r="O13">
+        <v>0.007789576147275677</v>
+      </c>
+      <c r="P13">
+        <v>0.007789576147275675</v>
+      </c>
+      <c r="Q13">
+        <v>0.09971567073</v>
+      </c>
+      <c r="R13">
+        <v>0.89744103657</v>
+      </c>
+      <c r="S13">
+        <v>3.188724993535868E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.188724993535867E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>8.952779999999999</v>
+      </c>
+      <c r="H14">
+        <v>26.85834</v>
+      </c>
+      <c r="I14">
+        <v>0.5842327034352874</v>
+      </c>
+      <c r="J14">
+        <v>0.5842327034352874</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>21.03403033333333</v>
+      </c>
+      <c r="N14">
+        <v>63.102091</v>
+      </c>
+      <c r="O14">
+        <v>0.1030737782409588</v>
+      </c>
+      <c r="P14">
+        <v>0.1030737782409588</v>
+      </c>
+      <c r="Q14">
+        <v>188.31304608766</v>
+      </c>
+      <c r="R14">
+        <v>1694.81741478894</v>
+      </c>
+      <c r="S14">
+        <v>0.06021907211500468</v>
+      </c>
+      <c r="T14">
+        <v>0.06021907211500467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>8.082378660190869</v>
-      </c>
-      <c r="H9">
-        <v>8.082378660190869</v>
-      </c>
-      <c r="I9">
-        <v>0.6255403204887813</v>
-      </c>
-      <c r="J9">
-        <v>0.6255403204887813</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.51124382495254</v>
-      </c>
-      <c r="N9">
-        <v>1.51124382495254</v>
-      </c>
-      <c r="O9">
-        <v>0.008492724206949286</v>
-      </c>
-      <c r="P9">
-        <v>0.008492724206949286</v>
-      </c>
-      <c r="Q9">
-        <v>12.21444484114163</v>
-      </c>
-      <c r="R9">
-        <v>12.21444484114163</v>
-      </c>
-      <c r="S9">
-        <v>0.005312541422237888</v>
-      </c>
-      <c r="T9">
-        <v>0.005312541422237888</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>8.952779999999999</v>
+      </c>
+      <c r="H15">
+        <v>26.85834</v>
+      </c>
+      <c r="I15">
+        <v>0.5842327034352874</v>
+      </c>
+      <c r="J15">
+        <v>0.5842327034352874</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.853217</v>
+      </c>
+      <c r="N15">
+        <v>5.559651000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.009081382648177616</v>
+      </c>
+      <c r="P15">
+        <v>0.009081382648177616</v>
+      </c>
+      <c r="Q15">
+        <v>16.59144409326</v>
+      </c>
+      <c r="R15">
+        <v>149.32299683934</v>
+      </c>
+      <c r="S15">
+        <v>0.005305640735475119</v>
+      </c>
+      <c r="T15">
+        <v>0.005305640735475119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>8.952779999999999</v>
+      </c>
+      <c r="H16">
+        <v>26.85834</v>
+      </c>
+      <c r="I16">
+        <v>0.5842327034352874</v>
+      </c>
+      <c r="J16">
+        <v>0.5842327034352874</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>179.590866</v>
+      </c>
+      <c r="N16">
+        <v>538.772598</v>
+      </c>
+      <c r="O16">
+        <v>0.8800552629635879</v>
+      </c>
+      <c r="P16">
+        <v>0.8800552629635878</v>
+      </c>
+      <c r="Q16">
+        <v>1607.83751330748</v>
+      </c>
+      <c r="R16">
+        <v>14470.53761976732</v>
+      </c>
+      <c r="S16">
+        <v>0.5141570654536698</v>
+      </c>
+      <c r="T16">
+        <v>0.5141570654536697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>8.952779999999999</v>
+      </c>
+      <c r="H17">
+        <v>26.85834</v>
+      </c>
+      <c r="I17">
+        <v>0.5842327034352874</v>
+      </c>
+      <c r="J17">
+        <v>0.5842327034352874</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.589601</v>
+      </c>
+      <c r="N17">
+        <v>4.768803</v>
+      </c>
+      <c r="O17">
+        <v>0.007789576147275677</v>
+      </c>
+      <c r="P17">
+        <v>0.007789576147275675</v>
+      </c>
+      <c r="Q17">
+        <v>14.23134804078</v>
+      </c>
+      <c r="R17">
+        <v>128.08213236702</v>
+      </c>
+      <c r="S17">
+        <v>0.0045509251311379</v>
+      </c>
+      <c r="T17">
+        <v>0.004550925131137898</v>
       </c>
     </row>
   </sheetData>
